--- a/spreadsheets/Blitzcrank.xlsx
+++ b/spreadsheets/Blitzcrank.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunny\champs.gg\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F587FFE2-9998-4C95-BEB2-2CD82880CCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9566FCB-98DA-47BB-9A0F-210BCD4D6480}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1"/>
+    <workbookView xWindow="34230" yWindow="2400" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Support" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>id</t>
   </si>
@@ -77,30 +82,30 @@
     <t>youtube</t>
   </si>
   <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
+  </si>
+  <si>
     <t>portrait</t>
   </si>
   <si>
-    <t xml:space="preserve">https://i.imgur.com/hg2A6VJ.png </t>
-  </si>
-  <si>
-    <t>If you aren't sure for portrait, just send me the picture you want on discord (usephysics#0001)</t>
-  </si>
-  <si>
     <t>description/bio</t>
   </si>
   <si>
     <t>Scrandor is a 4-year Challenger player who one-tricked Blitzcrank on his way up before branching out to other supports in recent history.</t>
   </si>
   <si>
+    <t>Once you have filled this out, please change sheets at the bottom.</t>
+  </si>
+  <si>
     <t>extra message</t>
   </si>
   <si>
     <t>Follow Scrandor for educational League content.</t>
   </si>
   <si>
-    <t>Once you have filled this out, please change sheets at the bottom.</t>
-  </si>
-  <si>
     <t>Sample of what it will look like on the website</t>
   </si>
   <si>
@@ -267,13 +272,16 @@
   </si>
   <si>
     <t>A super squishy support that dies on hook with most marksmen. However, holds some damage that can add up if hooks miss regularly. Zyra can be troublesome with her plants blocking hooks as well as having great counter-engage if you miss.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/1NEntPk.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -281,35 +289,229 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF336666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF336666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF336666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF663300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF424242"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF336666"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6CAF0"/>
+        <bgColor rgb="FFA0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFC0"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFA6CAF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0E0E0"/>
+        <bgColor rgb="FFA6CAF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3333CC"/>
+        <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor rgb="FF00CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFC0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -317,90 +519,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF424242"/>
+      </left>
+      <right style="double">
+        <color rgb="FF424242"/>
+      </right>
+      <top style="double">
+        <color rgb="FF424242"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF424242"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF3333CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFA6CAF0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA6CAF0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF424242"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF424242"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF424242"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF424242"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3333CC"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3333CC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent6" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent1" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - Accent2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent3" xfId="10" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - Accent4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent5" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - Accent6" xfId="13" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent1" xfId="14" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - Accent2" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - Accent3" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - Accent4" xfId="17" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - Accent5" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="60% - Accent6" xfId="19" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent1" xfId="20" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Accent2" xfId="21" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Accent3" xfId="22" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Accent4" xfId="23" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Accent5" xfId="24" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Accent6" xfId="25" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Bad 1" xfId="26" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Calculation" xfId="27" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Check Cell" xfId="28" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="43" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Explanatory Text" xfId="29" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Good 1" xfId="30" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 1 1" xfId="31" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Heading 2 1" xfId="32" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Heading 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Heading 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="35" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Linked Cell" xfId="36" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Neutral 1" xfId="37" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note 1" xfId="38" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Output" xfId="39" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Title" xfId="40" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Total" xfId="41" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Warning Text" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="008080FF"/>
-      <rgbColor rgb="00802060"/>
-      <rgbColor rgb="00FFFFC0"/>
-      <rgbColor rgb="00A0E0E0"/>
-      <rgbColor rgb="00600080"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000080C0"/>
-      <rgbColor rgb="00C0C0FF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="0069FFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="00A6CAF0"/>
-      <rgbColor rgb="00CC9CCC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00E3E3E3"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="00339933"/>
-      <rgbColor rgb="00999933"/>
-      <rgbColor rgb="00996633"/>
-      <rgbColor rgb="00996666"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="003333CC"/>
-      <rgbColor rgb="00336666"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFC0"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFA0E0E0"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFA6CAF0"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3333CC"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF336666"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF663300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF424242"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
       <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00663300"/>
+      <rgbColor rgb="00993300"/>
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00424242"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
   <extLst>
@@ -710,486 +1105,494 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IW14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="124.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.73046875" style="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="124.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="2" customWidth="1"/>
+    <col min="5" max="257" width="8.7109375" style="2" customWidth="1"/>
+    <col min="258" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{155A88D1-C834-470E-8BE0-EFA90524ECE4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28 C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" style="1"/>
-    <col min="3" max="3" width="220.73046875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.73046875" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="220.42578125" style="2" customWidth="1"/>
+    <col min="4" max="257" width="8.7109375" style="2" customWidth="1"/>
+    <col min="258" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>5</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>6</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>5</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>